--- a/crypto_exchanges_currencies.xlsx
+++ b/crypto_exchanges_currencies.xlsx
@@ -2553,8 +2553,8 @@
   <dimension ref="A1:A4673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,22 +2598,22 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
